--- a/nr-update/ig/StructureDefinition-as-dr-person.xlsx
+++ b/nr-update/ig/StructureDefinition-as-dr-person.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="439">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T17:24:24+00:00</t>
+    <t>2025-01-21T08:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -758,19 +758,19 @@
     <t>Nom issu de l’état-civil.</t>
   </si>
   <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>A name associated with the person.</t>
+  </si>
+  <si>
+    <t>Person may have multiple names with different uses or applicable periods.</t>
   </si>
   <si>
     <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>XPN</t>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
   </si>
   <si>
     <t>Person.name.id</t>
@@ -991,7 +991,7 @@
     <t>Différentes instances pour les téléphones, la télécopie et l’adresse mail.</t>
   </si>
   <si>
-    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
+    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
   </si>
   <si>
     <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification.</t>
@@ -1000,14 +1000,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>XTN</t>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>Person.telecom.id</t>
@@ -4519,7 +4515,7 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>235</v>
@@ -4592,7 +4588,7 @@
         <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>100</v>
@@ -5771,7 +5767,7 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>311</v>
@@ -5844,30 +5840,30 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5976,10 +5972,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6090,13 +6086,13 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C39" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>77</v>
@@ -6118,13 +6114,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6204,10 +6200,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6233,10 +6229,10 @@
         <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6266,28 +6262,28 @@
         <v>254</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z40" t="s" s="2">
+      <c r="AA40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6296,7 +6292,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>100</v>
@@ -6305,21 +6301,21 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6345,16 +6341,16 @@
         <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6403,7 +6399,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6421,21 +6417,21 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6461,16 +6457,16 @@
         <v>173</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6498,28 +6494,28 @@
         <v>254</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6543,15 +6539,15 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6574,16 +6570,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6633,7 +6629,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6662,10 +6658,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6691,10 +6687,10 @@
         <v>303</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6745,7 +6741,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6774,10 +6770,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6803,16 +6799,16 @@
         <v>173</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6840,11 +6836,11 @@
         <v>254</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6861,7 +6857,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6876,24 +6872,24 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6916,19 +6912,19 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6977,7 +6973,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6992,24 +6988,24 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7032,19 +7028,19 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7093,7 +7089,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7111,21 +7107,21 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7148,13 +7144,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7205,7 +7201,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7223,21 +7219,21 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7260,17 +7256,17 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7319,7 +7315,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7337,7 +7333,7 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7348,10 +7344,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7374,17 +7370,17 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7433,7 +7429,7 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7451,10 +7447,10 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7462,10 +7458,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7488,13 +7484,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7533,7 +7529,7 @@
         <v>77</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC51" s="2"/>
       <c r="AD51" t="s" s="2">
@@ -7543,7 +7539,7 @@
         <v>115</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7561,7 +7557,7 @@
         <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>77</v>
@@ -7572,10 +7568,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7684,10 +7680,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7798,14 +7794,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7827,10 +7823,10 @@
         <v>109</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>112</v>
@@ -7885,7 +7881,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7914,10 +7910,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7940,13 +7936,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7997,7 +7993,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>88</v>
@@ -8015,7 +8011,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8026,10 +8022,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8055,10 +8051,10 @@
         <v>173</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8088,11 +8084,11 @@
         <v>254</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z56" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AA56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8109,7 +8105,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8127,7 +8123,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8138,13 +8134,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
@@ -8166,13 +8162,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8223,7 +8219,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8241,7 +8237,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8252,10 +8248,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8364,10 +8360,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8478,14 +8474,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8507,10 +8503,10 @@
         <v>109</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>112</v>
@@ -8565,7 +8561,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8594,10 +8590,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8620,13 +8616,13 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8677,7 +8673,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>88</v>
@@ -8695,7 +8691,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8706,10 +8702,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8735,10 +8731,10 @@
         <v>173</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8768,11 +8764,11 @@
         <v>254</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8789,7 +8785,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8807,7 +8803,7 @@
         <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>

--- a/nr-update/ig/StructureDefinition-as-dr-person.xlsx
+++ b/nr-update/ig/StructureDefinition-as-dr-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T08:42:48+00:00</t>
+    <t>2025-01-21T08:47:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
